--- a/client/simulations/tests/data_no_confidence.xlsx
+++ b/client/simulations/tests/data_no_confidence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\ap-nimbus-client\client\simulations\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Input Values" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>Title</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>2019.1.682dce0</t>
-  </si>
-  <si>
-    <t>Modified</t>
   </si>
   <si>
     <t>Build options</t>
@@ -637,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -35340,10 +35337,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35368,112 +35365,104 @@
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="b">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
         <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
